--- a/Projectframwork/TestData/Testdata.xlsx
+++ b/Projectframwork/TestData/Testdata.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>standard_user</t>
+    <t>secret_sauce</t>
   </si>
   <si>
-    <t>secret_sauce</t>
+    <t xml:space="preserve">standard_user  </t>
   </si>
 </sst>
 </file>
@@ -372,10 +372,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
